--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
